--- a/Data/sodium salt mixture/salt mixtures.xlsx
+++ b/Data/sodium salt mixture/salt mixtures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuzhang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuzhang/Desktop/Hein lab/ChemoIR/Data/sodium salt mixture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32E078F-0985-5348-9722-5BE350A2C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7CCE93-D362-E74A-A78D-43B7BEA81009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33880" yWindow="5620" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="training data" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
@@ -4054,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E8D09A-327B-450B-9CEB-0D2FFD287D81}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4272,7 +4272,7 @@
         <v>0.373</v>
       </c>
       <c r="O5">
-        <v>0.42899999999999999</v>
+        <v>4.2889999999999997</v>
       </c>
       <c r="P5">
         <v>2.06</v>
